--- a/множество.xlsx
+++ b/множество.xlsx
@@ -21,6 +21,10 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -55,8 +59,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -340,7 +347,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -349,16 +356,69 @@
       <c r="A1">
         <v>1</v>
       </c>
+      <c r="L1">
+        <v>1</v>
+      </c>
+      <c r="M1">
+        <v>0</v>
+      </c>
+      <c r="N1">
+        <v>0</v>
+      </c>
+      <c r="O1">
+        <v>0</v>
+      </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>1</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>3</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>12</v>
       </c>
+      <c r="L4">
+        <v>4</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B5">
@@ -369,12 +429,59 @@
       </c>
       <c r="D5">
         <v>12</v>
+      </c>
+      <c r="L5">
+        <v>5</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>11</v>
+      </c>
+      <c r="L6">
+        <v>6</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>123</v>
       </c>
+      <c r="L7">
+        <v>7</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B8">
@@ -397,6 +504,26 @@
       </c>
       <c r="H8">
         <v>123</v>
+      </c>
+      <c r="L8">
+        <v>8</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
